--- a/attach/Workbook1.xlsx
+++ b/attach/Workbook1.xlsx
@@ -28,9 +28,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
-  <si>
-    <t>cr ARSON</t>
-  </si>
   <si>
     <t>ASSAULT W/DANGEROUS WEAPON</t>
   </si>
@@ -98,7 +95,10 @@
     <t>District</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Arson</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -415,56 +415,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -732,10 +732,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1003,10 +1003,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1274,10 +1274,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2358,10 +2358,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -2629,10 +2629,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75">
         <v>6</v>
